--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_7_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1739283.13656687</v>
+        <v>1739066.141540999</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960773</v>
+        <v>244259.5951960768</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.10912739416949</v>
+        <v>9.062868462359598</v>
       </c>
       <c r="F11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="G11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="H11" t="n">
-        <v>9.133178905133544</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.547305019407929</v>
+        <v>6.5473050194081</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3390387585095596</v>
+        <v>0.3390387585096164</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>10.91391065479223</v>
+        <v>10.91391065479246</v>
       </c>
       <c r="F14" t="n">
-        <v>12.10503390630708</v>
+        <v>11.2276347475835</v>
       </c>
       <c r="G14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="H14" t="n">
-        <v>11.22763474758683</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10.98422109756581</v>
+        <v>10.98422109756621</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6.352088280030671</v>
+        <v>6.352088280031012</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1438220191323012</v>
+        <v>0.1438220191325286</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.27553136658616</v>
+        <v>10.27553136658634</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.643398549051028</v>
+        <v>5.643398549051142</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.86735188472909</v>
+        <v>15.86735188472886</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.936446415730529</v>
+        <v>9.936446415730302</v>
       </c>
       <c r="F20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="G20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="H20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.0067568585041</v>
+        <v>10.00675685850405</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.374624040968968</v>
+        <v>5.374624040968854</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.31640192177559</v>
+        <v>14.31640192177565</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.385496452777033</v>
+        <v>8.38549645277709</v>
       </c>
       <c r="F23" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="G23" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="H23" t="n">
-        <v>26.89446899712038</v>
+        <v>26.89446899712044</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.455806895550666</v>
+        <v>8.455806895550722</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.823674078015529</v>
+        <v>3.823674078015586</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.31640192177565</v>
+        <v>14.31640192177554</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.38549645277709</v>
+        <v>8.385496452776977</v>
       </c>
       <c r="F26" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="G26" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="H26" t="n">
-        <v>26.89446899712044</v>
+        <v>26.89446899712033</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.455806895550641</v>
+        <v>8.455806895550722</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.15637973265405</v>
+        <v>31.15637973265393</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.31640192177559</v>
+        <v>14.31640192177548</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.385496452777033</v>
+        <v>8.38549645277692</v>
       </c>
       <c r="F29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="G29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="H29" t="n">
-        <v>26.89446899712038</v>
+        <v>26.89446899712027</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.455806895550609</v>
+        <v>8.455806895550666</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.823674078015447</v>
+        <v>3.823674078015486</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265387</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.44085126799212</v>
+        <v>13.44085126799189</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.509945798993556</v>
+        <v>7.509945798993328</v>
       </c>
       <c r="F32" t="n">
-        <v>45.46046107166365</v>
+        <v>45.46046107166486</v>
       </c>
       <c r="G32" t="n">
-        <v>45.46046107166365</v>
+        <v>45.46046107166486</v>
       </c>
       <c r="H32" t="n">
-        <v>26.01891834333691</v>
+        <v>26.01891834333668</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.580256241767131</v>
+        <v>7.580256241767074</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.948123424231994</v>
+        <v>2.948123424231881</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.28082907887051</v>
+        <v>30.28082907887028</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.70962577607423</v>
+        <v>13.70962577607418</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.778720307075673</v>
+        <v>7.778720307075616</v>
       </c>
       <c r="F35" t="n">
-        <v>34.28102323472041</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="G35" t="n">
-        <v>34.28102323472041</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="H35" t="n">
-        <v>26.28769285141903</v>
+        <v>26.28769285141898</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.849030749849224</v>
+        <v>7.849030749849337</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.216897932314087</v>
+        <v>3.216897932314183</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.54960358695263</v>
+        <v>30.54960358695257</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14.18179856125403</v>
+        <v>14.18179856125391</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.250893092255467</v>
+        <v>8.250893092255353</v>
       </c>
       <c r="F38" t="n">
-        <v>33.35542716535657</v>
+        <v>33.35542716535934</v>
       </c>
       <c r="G38" t="n">
-        <v>33.35542716535657</v>
+        <v>33.35542716535934</v>
       </c>
       <c r="H38" t="n">
-        <v>26.75986563659882</v>
+        <v>26.7598656365987</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.321203535029042</v>
+        <v>8.321203535029074</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.02177637213242</v>
+        <v>31.02177637213231</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.48992126894871</v>
+        <v>14.48992126894876</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.559015799950146</v>
+        <v>8.559015799950203</v>
       </c>
       <c r="F41" t="n">
-        <v>29.32433467885245</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="G41" t="n">
-        <v>29.32433467885245</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="H41" t="n">
-        <v>27.0679883442935</v>
+        <v>27.06798834429355</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.629326242723721</v>
+        <v>8.629326242723948</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.997193425188559</v>
+        <v>3.997193425188755</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.32433467885245</v>
+        <v>29.3243346788521</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.68513800832602</v>
+        <v>14.68513800832585</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.754232539327461</v>
+        <v>8.75423253932729</v>
       </c>
       <c r="F44" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="G44" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="H44" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.824542982101036</v>
+        <v>8.824542982101011</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4.192410164565899</v>
+        <v>4.192410164565842</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.79056505242349</v>
+        <v>21.79056505242325</v>
       </c>
       <c r="C11" t="n">
-        <v>32.8582085109973</v>
+        <v>32.858208510997</v>
       </c>
       <c r="D11" t="n">
-        <v>43.92585196957111</v>
+        <v>43.92585196957074</v>
       </c>
       <c r="E11" t="n">
-        <v>32.70451116737974</v>
+        <v>34.77143938132873</v>
       </c>
       <c r="F11" t="n">
-        <v>21.41214971592191</v>
+        <v>23.47907792987097</v>
       </c>
       <c r="G11" t="n">
-        <v>10.11978826446409</v>
+        <v>12.18671647841321</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="I11" t="n">
         <v>7.716855866968444</v>
       </c>
       <c r="J11" t="n">
-        <v>18.78449932554212</v>
+        <v>18.78449932554219</v>
       </c>
       <c r="K11" t="n">
-        <v>18.78449932554212</v>
+        <v>27.02100118097987</v>
       </c>
       <c r="L11" t="n">
-        <v>7.492137874084298</v>
+        <v>15.72863972952211</v>
       </c>
       <c r="M11" t="n">
-        <v>8.581707248547787</v>
+        <v>16.81820910398534</v>
       </c>
       <c r="N11" t="n">
-        <v>11.72171036821597</v>
+        <v>19.95821222365325</v>
       </c>
       <c r="O11" t="n">
-        <v>11.72171036821597</v>
+        <v>20.07391473210492</v>
       </c>
       <c r="P11" t="n">
-        <v>5.108270954672548</v>
+        <v>13.46047531856135</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.065894337123495</v>
+        <v>14.41809870101181</v>
       </c>
       <c r="R11" t="n">
-        <v>9.102980795141868</v>
+        <v>14.41809870101181</v>
       </c>
       <c r="S11" t="n">
-        <v>20.17062425371562</v>
+        <v>22.58246443062522</v>
       </c>
       <c r="T11" t="n">
-        <v>31.23826771228943</v>
+        <v>22.58246443062522</v>
       </c>
       <c r="U11" t="n">
-        <v>33.65010788919917</v>
+        <v>22.58246443062522</v>
       </c>
       <c r="V11" t="n">
-        <v>33.65010788919917</v>
+        <v>33.65010788919897</v>
       </c>
       <c r="W11" t="n">
-        <v>44.71775134777298</v>
+        <v>44.71775134777272</v>
       </c>
       <c r="X11" t="n">
-        <v>44.37528795533913</v>
+        <v>44.37528795533876</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.08292650388131</v>
+        <v>33.082926503881</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8943550269554597</v>
+        <v>0.8943550269554544</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.82024690629251</v>
+        <v>23.82024690628918</v>
       </c>
       <c r="C14" t="n">
-        <v>35.80423047353652</v>
+        <v>35.80423047353163</v>
       </c>
       <c r="D14" t="n">
-        <v>47.78821404078053</v>
+        <v>47.78821404077409</v>
       </c>
       <c r="E14" t="n">
-        <v>36.76406186422275</v>
+        <v>36.76406186421609</v>
       </c>
       <c r="F14" t="n">
-        <v>24.53675488815499</v>
+        <v>25.42301666463679</v>
       </c>
       <c r="G14" t="n">
-        <v>12.30944791208723</v>
+        <v>13.19570968857062</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="I14" t="n">
-        <v>7.984168124501023</v>
+        <v>6.407825126732144</v>
       </c>
       <c r="J14" t="n">
-        <v>19.96815169174504</v>
+        <v>6.407825126732144</v>
       </c>
       <c r="K14" t="n">
-        <v>28.39791811916631</v>
+        <v>14.83759155415305</v>
       </c>
       <c r="L14" t="n">
-        <v>17.30274529334201</v>
+        <v>3.7424187283286</v>
       </c>
       <c r="M14" t="n">
-        <v>17.30274529334201</v>
+        <v>3.7424187283286</v>
       </c>
       <c r="N14" t="n">
-        <v>20.63601298499367</v>
+        <v>7.075686419979718</v>
       </c>
       <c r="O14" t="n">
-        <v>20.63601298499367</v>
+        <v>7.384653500414572</v>
       </c>
       <c r="P14" t="n">
-        <v>14.2197621970839</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.2197621970839</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="R14" t="n">
-        <v>14.2197621970839</v>
+        <v>4.198753742505914</v>
       </c>
       <c r="S14" t="n">
-        <v>24.45216849074031</v>
+        <v>16.18273730974837</v>
       </c>
       <c r="T14" t="n">
-        <v>24.45216849074031</v>
+        <v>24.45216849073714</v>
       </c>
       <c r="U14" t="n">
-        <v>24.45216849074031</v>
+        <v>36.4361520579796</v>
       </c>
       <c r="V14" t="n">
-        <v>36.43615205798432</v>
+        <v>48.42013562522205</v>
       </c>
       <c r="W14" t="n">
-        <v>48.42013562522833</v>
+        <v>48.42013562522205</v>
       </c>
       <c r="X14" t="n">
-        <v>48.27486085842803</v>
+        <v>48.27486085842153</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.04755388236027</v>
+        <v>36.04755388235535</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="W15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9684027125045667</v>
+        <v>0.9684027125044411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.94627043425285</v>
+        <v>28.54701652259418</v>
       </c>
       <c r="C17" t="n">
-        <v>47.92103556313589</v>
+        <v>44.52178165147722</v>
       </c>
       <c r="D17" t="n">
-        <v>62.39946426735474</v>
+        <v>60.49654678036026</v>
       </c>
       <c r="E17" t="n">
-        <v>52.09116030390771</v>
+        <v>50.18824281691323</v>
       </c>
       <c r="F17" t="n">
-        <v>35.7920427354116</v>
+        <v>33.88912524841712</v>
       </c>
       <c r="G17" t="n">
-        <v>19.49292516691548</v>
+        <v>17.590007679921</v>
       </c>
       <c r="H17" t="n">
-        <v>3.193807598419406</v>
+        <v>1.290890111424892</v>
       </c>
       <c r="I17" t="n">
-        <v>3.193807598419406</v>
+        <v>2.538845463047384</v>
       </c>
       <c r="J17" t="n">
-        <v>3.193807598419406</v>
+        <v>2.538845463047384</v>
       </c>
       <c r="K17" t="n">
-        <v>12.32517685951052</v>
+        <v>11.67021472413836</v>
       </c>
       <c r="L17" t="n">
-        <v>1.945852246797244</v>
+        <v>1.290890111424892</v>
       </c>
       <c r="M17" t="n">
-        <v>1.945852246797244</v>
+        <v>3.275326891541487</v>
       </c>
       <c r="N17" t="n">
-        <v>5.980722772118763</v>
+        <v>7.310197416862797</v>
       </c>
       <c r="O17" t="n">
-        <v>6.991292686223911</v>
+        <v>8.320767330967858</v>
       </c>
       <c r="P17" t="n">
-        <v>1.290890111424892</v>
+        <v>2.620364756168592</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.143380899529234</v>
+        <v>2.620364756168592</v>
       </c>
       <c r="R17" t="n">
-        <v>7.075334763200853</v>
+        <v>6.552318619840184</v>
       </c>
       <c r="S17" t="n">
-        <v>7.075334763200853</v>
+        <v>12.66173723820848</v>
       </c>
       <c r="T17" t="n">
-        <v>23.05009989208389</v>
+        <v>28.63650236709152</v>
       </c>
       <c r="U17" t="n">
-        <v>39.02486502096693</v>
+        <v>28.63650236709152</v>
       </c>
       <c r="V17" t="n">
-        <v>54.99963014985002</v>
+        <v>44.61126749597456</v>
       </c>
       <c r="W17" t="n">
-        <v>64.5445055712446</v>
+        <v>60.58603262485759</v>
       </c>
       <c r="X17" t="n">
-        <v>64.5445055712446</v>
+        <v>61.14525165958646</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.24538800274896</v>
+        <v>44.84613409109029</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.60522814777217</v>
+        <v>38.38032913104123</v>
       </c>
       <c r="C20" t="n">
-        <v>48.62051157588505</v>
+        <v>56.39561255915453</v>
       </c>
       <c r="D20" t="n">
-        <v>66.63579500399794</v>
+        <v>66.63579500399902</v>
       </c>
       <c r="E20" t="n">
-        <v>56.59898044265401</v>
+        <v>56.59898044265532</v>
       </c>
       <c r="F20" t="n">
-        <v>38.21791378811582</v>
+        <v>38.2179137881167</v>
       </c>
       <c r="G20" t="n">
-        <v>19.83684713357762</v>
+        <v>19.83684713357808</v>
       </c>
       <c r="H20" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="I20" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="J20" t="n">
-        <v>15.75529960955564</v>
+        <v>2.166159665557339</v>
       </c>
       <c r="K20" t="n">
-        <v>15.75529960955564</v>
+        <v>11.56361568964958</v>
       </c>
       <c r="L20" t="n">
-        <v>5.647464398945353</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="M20" t="n">
-        <v>7.897987942063406</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="N20" t="n">
-        <v>12.19894523038617</v>
+        <v>5.756737767362218</v>
       </c>
       <c r="O20" t="n">
-        <v>12.19894523038617</v>
+        <v>6.88469365173529</v>
       </c>
       <c r="P20" t="n">
-        <v>6.770032057691793</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.770032057691793</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="R20" t="n">
-        <v>10.96807268436473</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="S20" t="n">
-        <v>28.98335611247761</v>
+        <v>19.47106390715276</v>
       </c>
       <c r="T20" t="n">
-        <v>28.98335611247761</v>
+        <v>19.47106390715276</v>
       </c>
       <c r="U20" t="n">
-        <v>28.98335611247761</v>
+        <v>37.48634733526606</v>
       </c>
       <c r="V20" t="n">
-        <v>46.9986395405905</v>
+        <v>55.50163076337947</v>
       </c>
       <c r="W20" t="n">
-        <v>65.01392296870338</v>
+        <v>71.9637181542426</v>
       </c>
       <c r="X20" t="n">
-        <v>65.01392296870338</v>
+        <v>72.78902395197292</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.63285631416518</v>
+        <v>54.40795729743402</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="C21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="D21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="E21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="F21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="G21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="H21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="I21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="J21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="K21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="L21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="M21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="N21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="O21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="P21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="R21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="S21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="T21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="U21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="V21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="W21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="X21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="C22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="D22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="E22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="F22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="G22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="H22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="I22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="J22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="K22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="L22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="M22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="N22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="O22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="P22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="R22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="S22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="T22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="U22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="V22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="W22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="X22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.455780479039425</v>
+        <v>1.455780479039458</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.69341624937391</v>
+        <v>49.0546213621431</v>
       </c>
       <c r="C23" t="n">
-        <v>99.86499934587488</v>
+        <v>70.22620445864401</v>
       </c>
       <c r="D23" t="n">
-        <v>101.0710203939712</v>
+        <v>101.0710203939715</v>
       </c>
       <c r="E23" t="n">
-        <v>92.6008219568227</v>
+        <v>92.60082195682295</v>
       </c>
       <c r="F23" t="n">
-        <v>61.12973131777827</v>
+        <v>61.12973131777847</v>
       </c>
       <c r="G23" t="n">
-        <v>29.65864067873392</v>
+        <v>29.65864067873398</v>
       </c>
       <c r="H23" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I23" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J23" t="n">
-        <v>33.33732631393977</v>
+        <v>33.33732631393983</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33732631393977</v>
+        <v>43.50674888219301</v>
       </c>
       <c r="L23" t="n">
-        <v>24.79610722752491</v>
+        <v>34.9655297957781</v>
       </c>
       <c r="M23" t="n">
-        <v>28.58207123396682</v>
+        <v>34.9655297957781</v>
       </c>
       <c r="N23" t="n">
-        <v>34.41846898561337</v>
+        <v>34.9655297957781</v>
       </c>
       <c r="O23" t="n">
-        <v>34.41846898561337</v>
+        <v>37.77762693620839</v>
       </c>
       <c r="P23" t="n">
-        <v>30.55617193711285</v>
+        <v>33.91532988770781</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.21018995154228</v>
+        <v>37.56934790213718</v>
       </c>
       <c r="R23" t="n">
-        <v>39.94367104153909</v>
+        <v>37.56934790213718</v>
       </c>
       <c r="S23" t="n">
-        <v>39.94367104153909</v>
+        <v>37.56934790213718</v>
       </c>
       <c r="T23" t="n">
-        <v>39.94367104153909</v>
+        <v>37.56934790213718</v>
       </c>
       <c r="U23" t="n">
-        <v>70.78848697686635</v>
+        <v>37.56934790213718</v>
       </c>
       <c r="V23" t="n">
-        <v>95.692212463641</v>
+        <v>68.41416383746436</v>
       </c>
       <c r="W23" t="n">
-        <v>122.2647726695619</v>
+        <v>94.98672404338522</v>
       </c>
       <c r="X23" t="n">
-        <v>124.625518930616</v>
+        <v>94.98672404338522</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.15442829157148</v>
+        <v>63.51563340434073</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.05462136214303</v>
+        <v>49.05462136214274</v>
       </c>
       <c r="C26" t="n">
-        <v>70.22620445864393</v>
+        <v>70.22620445864376</v>
       </c>
       <c r="D26" t="n">
-        <v>101.0710203939714</v>
+        <v>101.0710203939713</v>
       </c>
       <c r="E26" t="n">
-        <v>92.60082195682286</v>
+        <v>92.60082195682283</v>
       </c>
       <c r="F26" t="n">
-        <v>61.12973131777842</v>
+        <v>61.12973131777834</v>
       </c>
       <c r="G26" t="n">
-        <v>29.65864067873398</v>
+        <v>29.65864067873387</v>
       </c>
       <c r="H26" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I26" t="n">
-        <v>12.01140585060388</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J26" t="n">
-        <v>12.01140585060388</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K26" t="n">
-        <v>12.01140585060388</v>
+        <v>11.03372946502718</v>
       </c>
       <c r="L26" t="n">
-        <v>3.470186764189085</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M26" t="n">
-        <v>3.470186764189085</v>
+        <v>6.278474385054176</v>
       </c>
       <c r="N26" t="n">
-        <v>9.306584515835748</v>
+        <v>12.11487213670068</v>
       </c>
       <c r="O26" t="n">
-        <v>9.306584515835748</v>
+        <v>14.92696927713098</v>
       </c>
       <c r="P26" t="n">
-        <v>5.444287467335226</v>
+        <v>11.06467222863037</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.098305481764651</v>
+        <v>11.06467222863037</v>
       </c>
       <c r="R26" t="n">
-        <v>9.098305481764651</v>
+        <v>16.79815331862721</v>
       </c>
       <c r="S26" t="n">
-        <v>9.098305481764651</v>
+        <v>16.79815331862721</v>
       </c>
       <c r="T26" t="n">
-        <v>9.098305481764651</v>
+        <v>47.64296925395472</v>
       </c>
       <c r="U26" t="n">
-        <v>39.9431214170921</v>
+        <v>47.64296925395472</v>
       </c>
       <c r="V26" t="n">
-        <v>66.05341757641148</v>
+        <v>78.48778518928202</v>
       </c>
       <c r="W26" t="n">
-        <v>92.62597778233234</v>
+        <v>92.62597778233055</v>
       </c>
       <c r="X26" t="n">
-        <v>94.98672404338632</v>
+        <v>94.98672404338464</v>
       </c>
       <c r="Y26" t="n">
-        <v>63.51563340434066</v>
+        <v>63.51563340434025</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.22620445864383</v>
+        <v>49.05462136214257</v>
       </c>
       <c r="C29" t="n">
-        <v>70.22620445864383</v>
+        <v>70.22620445864365</v>
       </c>
       <c r="D29" t="n">
-        <v>101.0710203939713</v>
+        <v>101.0710203939712</v>
       </c>
       <c r="E29" t="n">
-        <v>92.60082195682278</v>
+        <v>92.60082195682277</v>
       </c>
       <c r="F29" t="n">
-        <v>61.12973131777835</v>
+        <v>61.12973131777828</v>
       </c>
       <c r="G29" t="n">
-        <v>29.65864067873392</v>
+        <v>29.65864067873381</v>
       </c>
       <c r="H29" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I29" t="n">
-        <v>12.01140585060389</v>
+        <v>12.01140585060396</v>
       </c>
       <c r="J29" t="n">
-        <v>42.85622178593135</v>
+        <v>42.85622178593146</v>
       </c>
       <c r="K29" t="n">
-        <v>53.7891182733476</v>
+        <v>53.78911827334781</v>
       </c>
       <c r="L29" t="n">
-        <v>45.24789918693286</v>
+        <v>45.24789918693301</v>
       </c>
       <c r="M29" t="n">
-        <v>49.03386319337452</v>
+        <v>49.03386319337488</v>
       </c>
       <c r="N29" t="n">
-        <v>49.03386319337452</v>
+        <v>54.87026094502095</v>
       </c>
       <c r="O29" t="n">
-        <v>51.84596033380497</v>
+        <v>54.87026094502095</v>
       </c>
       <c r="P29" t="n">
-        <v>47.98366328530451</v>
+        <v>51.00796389652046</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.63768129973334</v>
+        <v>54.66198191094998</v>
       </c>
       <c r="R29" t="n">
-        <v>51.63768129973334</v>
+        <v>60.39546300094685</v>
       </c>
       <c r="S29" t="n">
-        <v>82.48249723506079</v>
+        <v>60.39546300094685</v>
       </c>
       <c r="T29" t="n">
-        <v>82.48249723506079</v>
+        <v>60.39546300094685</v>
       </c>
       <c r="U29" t="n">
-        <v>82.48249723506079</v>
+        <v>61.78116184700315</v>
       </c>
       <c r="V29" t="n">
-        <v>113.3273131703882</v>
+        <v>92.62597778233066</v>
       </c>
       <c r="W29" t="n">
-        <v>113.7975608788319</v>
+        <v>92.62597778233066</v>
       </c>
       <c r="X29" t="n">
-        <v>116.158307139886</v>
+        <v>94.98672404338481</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.6872165008414</v>
+        <v>63.51563340434004</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="C31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="D31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="E31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="F31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="G31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="H31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="I31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="J31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="K31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="L31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="M31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="N31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="O31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="P31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="R31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="S31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="T31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="U31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="V31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="W31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="X31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.492510378612319</v>
+        <v>2.492510378612323</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.25499922703634</v>
+        <v>69.59817474040443</v>
       </c>
       <c r="C32" t="n">
-        <v>99.29337747078299</v>
+        <v>91.63655298415131</v>
       </c>
       <c r="D32" t="n">
-        <v>137.0005162063644</v>
+        <v>129.3436917197329</v>
       </c>
       <c r="E32" t="n">
-        <v>129.4147123689972</v>
+        <v>121.7578878823659</v>
       </c>
       <c r="F32" t="n">
-        <v>83.49505472085205</v>
+        <v>75.83823023421959</v>
       </c>
       <c r="G32" t="n">
-        <v>37.57539707270695</v>
+        <v>29.91857258607327</v>
       </c>
       <c r="H32" t="n">
-        <v>11.29366137236656</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="I32" t="n">
-        <v>11.29366137236656</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="J32" t="n">
-        <v>11.29366137236656</v>
+        <v>48.6426933466814</v>
       </c>
       <c r="K32" t="n">
-        <v>11.29366137236656</v>
+        <v>60.44238498134345</v>
       </c>
       <c r="L32" t="n">
-        <v>3.636836885733092</v>
+        <v>52.78556049471004</v>
       </c>
       <c r="M32" t="n">
-        <v>8.289596039420756</v>
+        <v>57.4383196483977</v>
       </c>
       <c r="N32" t="n">
-        <v>14.99278893831314</v>
+        <v>64.14151254729015</v>
       </c>
       <c r="O32" t="n">
-        <v>14.99278893831314</v>
+        <v>67.8204048349663</v>
       </c>
       <c r="P32" t="n">
-        <v>12.01488648959395</v>
+        <v>64.84250238624774</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.01488648959395</v>
+        <v>64.84250238624774</v>
       </c>
       <c r="R32" t="n">
-        <v>18.6151627268365</v>
+        <v>64.84250238624774</v>
       </c>
       <c r="S32" t="n">
-        <v>18.6151627268365</v>
+        <v>64.84250238624774</v>
       </c>
       <c r="T32" t="n">
-        <v>54.61582191051815</v>
+        <v>68.75563176113521</v>
       </c>
       <c r="U32" t="n">
-        <v>54.61582191051815</v>
+        <v>113.7614882220834</v>
       </c>
       <c r="V32" t="n">
-        <v>90.75141594724982</v>
+        <v>113.7614882220834</v>
       </c>
       <c r="W32" t="n">
-        <v>118.1907713004164</v>
+        <v>113.7614882220834</v>
       </c>
       <c r="X32" t="n">
-        <v>121.4183127087161</v>
+        <v>113.7614882220834</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.83161666945261</v>
+        <v>83.17479218282051</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="C33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="D33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="E33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="F33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="G33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="H33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="I33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="J33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="K33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="L33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="M33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="N33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="O33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="P33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="R33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="S33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="T33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="U33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="V33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="W33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="X33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="C34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="D34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="E34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="F34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="G34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="H34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="I34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="J34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="K34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="L34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="M34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="N34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="O34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="P34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="R34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="S34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="T34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="U34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="V34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="W34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="X34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.636836885733092</v>
+        <v>3.636836885733189</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.46937959169284</v>
+        <v>50.69708811094873</v>
       </c>
       <c r="C35" t="n">
-        <v>72.46937959169284</v>
+        <v>72.46937959169415</v>
       </c>
       <c r="D35" t="n">
-        <v>106.407592594066</v>
+        <v>106.4075925940686</v>
       </c>
       <c r="E35" t="n">
-        <v>98.55029935459567</v>
+        <v>98.55029935459828</v>
       </c>
       <c r="F35" t="n">
-        <v>63.92300315790838</v>
+        <v>63.92300315790972</v>
       </c>
       <c r="G35" t="n">
-        <v>29.2957069612211</v>
+        <v>29.29570696122115</v>
       </c>
       <c r="H35" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="I35" t="n">
-        <v>12.86208571501354</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="J35" t="n">
-        <v>16.27766101341959</v>
+        <v>36.6806948611522</v>
       </c>
       <c r="K35" t="n">
-        <v>16.27766101341959</v>
+        <v>36.6806948611522</v>
       </c>
       <c r="L35" t="n">
-        <v>8.349347124683</v>
+        <v>28.75238097241549</v>
       </c>
       <c r="M35" t="n">
-        <v>8.349347124683</v>
+        <v>28.75238097241549</v>
       </c>
       <c r="N35" t="n">
-        <v>14.78645326057405</v>
+        <v>28.75238097241549</v>
       </c>
       <c r="O35" t="n">
-        <v>14.78645326057405</v>
+        <v>28.75238097241549</v>
       </c>
       <c r="P35" t="n">
-        <v>11.53706140975174</v>
+        <v>25.50298912159309</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.79178780842561</v>
+        <v>25.50298912159309</v>
       </c>
       <c r="R35" t="n">
-        <v>22.12597728266684</v>
+        <v>31.8371785958343</v>
       </c>
       <c r="S35" t="n">
-        <v>56.06419028504004</v>
+        <v>65.77539159820876</v>
       </c>
       <c r="T35" t="n">
-        <v>90.00240328741324</v>
+        <v>65.77539159820876</v>
       </c>
       <c r="U35" t="n">
-        <v>90.00240328741324</v>
+        <v>65.77539159820876</v>
       </c>
       <c r="V35" t="n">
-        <v>90.00240328741324</v>
+        <v>92.44192575153586</v>
       </c>
       <c r="W35" t="n">
-        <v>117.1756718775786</v>
+        <v>92.44192575153586</v>
       </c>
       <c r="X35" t="n">
-        <v>117.1756718775786</v>
+        <v>95.40338039683434</v>
       </c>
       <c r="Y35" t="n">
-        <v>86.31748643621228</v>
+        <v>64.54519495546811</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="C36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="D36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="E36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="F36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="G36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="H36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="I36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="J36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="K36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="L36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="M36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="N36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="O36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="P36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="R36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="S36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="T36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="U36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="V36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="W36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="X36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="C37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="D37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="E37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="F37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="G37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="H37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="I37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="J37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="K37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="L37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="M37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="N37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="O37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="P37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="R37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="S37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="T37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="U37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="V37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="W37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="X37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.742481858777633</v>
+        <v>2.742481858777734</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.80092147608769</v>
+        <v>58.11856279797132</v>
       </c>
       <c r="C38" t="n">
-        <v>80.80092147608769</v>
+        <v>79.42340322138853</v>
       </c>
       <c r="D38" t="n">
-        <v>113.8227943697907</v>
+        <v>105.4175382738073</v>
       </c>
       <c r="E38" t="n">
-        <v>105.488558923068</v>
+        <v>97.08330282708471</v>
       </c>
       <c r="F38" t="n">
-        <v>71.79620825099066</v>
+        <v>63.39095215500456</v>
       </c>
       <c r="G38" t="n">
-        <v>38.10385757891331</v>
+        <v>29.69860148292441</v>
       </c>
       <c r="H38" t="n">
-        <v>11.07369026921746</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="I38" t="n">
-        <v>11.07369026921746</v>
+        <v>12.3205869721364</v>
       </c>
       <c r="J38" t="n">
-        <v>11.07369026921746</v>
+        <v>12.3205869721364</v>
       </c>
       <c r="K38" t="n">
-        <v>11.07369026921746</v>
+        <v>12.3205869721364</v>
       </c>
       <c r="L38" t="n">
-        <v>2.668434173228526</v>
+        <v>3.915330876147436</v>
       </c>
       <c r="M38" t="n">
-        <v>6.587655506586898</v>
+        <v>6.394768231303491</v>
       </c>
       <c r="N38" t="n">
-        <v>12.55731058514961</v>
+        <v>6.394768231303491</v>
       </c>
       <c r="O38" t="n">
-        <v>15.50266505249639</v>
+        <v>6.394768231303491</v>
       </c>
       <c r="P38" t="n">
-        <v>11.77633099442173</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.56360633576757</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="R38" t="n">
-        <v>15.56360633576757</v>
+        <v>8.535172590141997</v>
       </c>
       <c r="S38" t="n">
-        <v>48.58547922947057</v>
+        <v>8.535172590141997</v>
       </c>
       <c r="T38" t="n">
-        <v>81.60735212317357</v>
+        <v>41.55704548384774</v>
       </c>
       <c r="U38" t="n">
-        <v>114.6292250168766</v>
+        <v>41.55704548384774</v>
       </c>
       <c r="V38" t="n">
-        <v>123.96709458851</v>
+        <v>74.57891837755349</v>
       </c>
       <c r="W38" t="n">
-        <v>123.96709458851</v>
+        <v>101.2847359103909</v>
       </c>
       <c r="X38" t="n">
-        <v>126.4610981764804</v>
+        <v>103.7787394983614</v>
       </c>
       <c r="Y38" t="n">
-        <v>95.12597052785947</v>
+        <v>72.44361184974295</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="C39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="D39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="E39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="F39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="G39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="H39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="I39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="J39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="K39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="L39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="M39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="N39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="O39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="P39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="R39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="S39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="T39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="U39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="V39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="W39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="X39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="C40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="D40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="E40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="F40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="G40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="H40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="I40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="J40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="K40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="L40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="M40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="N40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="O40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="P40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="R40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="S40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="T40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="U40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="V40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="W40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="X40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.668434173228526</v>
+        <v>2.668434173228748</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>73.04051452571167</v>
+        <v>68.54280847451521</v>
       </c>
       <c r="C41" t="n">
-        <v>94.04031346851133</v>
+        <v>68.54280847451521</v>
       </c>
       <c r="D41" t="n">
-        <v>97.57389980657922</v>
+        <v>97.57389980657879</v>
       </c>
       <c r="E41" t="n">
-        <v>88.9284293015793</v>
+        <v>88.92842930157863</v>
       </c>
       <c r="F41" t="n">
-        <v>59.30788922193036</v>
+        <v>59.30788922193004</v>
       </c>
       <c r="G41" t="n">
-        <v>29.68734914228142</v>
+        <v>29.68734914228146</v>
       </c>
       <c r="H41" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="I41" t="n">
-        <v>11.69305809259845</v>
+        <v>11.69305809259828</v>
       </c>
       <c r="J41" t="n">
-        <v>40.72414942466237</v>
+        <v>40.72414942466186</v>
       </c>
       <c r="K41" t="n">
-        <v>51.48526175837731</v>
+        <v>51.48526175837663</v>
       </c>
       <c r="L41" t="n">
-        <v>42.76877060411102</v>
+        <v>42.76877060411002</v>
       </c>
       <c r="M41" t="n">
-        <v>42.76877060411102</v>
+        <v>46.38295045685177</v>
       </c>
       <c r="N41" t="n">
-        <v>48.43338420205635</v>
+        <v>46.38295045685177</v>
       </c>
       <c r="O41" t="n">
-        <v>48.43338420205635</v>
+        <v>49.0232634435806</v>
       </c>
       <c r="P41" t="n">
-        <v>44.39581508570427</v>
+        <v>44.98569432722832</v>
       </c>
       <c r="Q41" t="n">
-        <v>47.87804894643242</v>
+        <v>44.98569432722832</v>
       </c>
       <c r="R41" t="n">
-        <v>53.43974588272795</v>
+        <v>44.98569432722832</v>
       </c>
       <c r="S41" t="n">
-        <v>59.67650922377373</v>
+        <v>74.0167856592919</v>
       </c>
       <c r="T41" t="n">
-        <v>88.70760055583756</v>
+        <v>74.0167856592919</v>
       </c>
       <c r="U41" t="n">
-        <v>88.70760055583756</v>
+        <v>81.57957922479697</v>
       </c>
       <c r="V41" t="n">
-        <v>88.70760055583756</v>
+        <v>110.6106705568606</v>
       </c>
       <c r="W41" t="n">
-        <v>115.1083766080571</v>
+        <v>110.6106705568606</v>
       </c>
       <c r="X41" t="n">
-        <v>117.2973387154098</v>
+        <v>112.7996326642132</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.67679863576086</v>
+        <v>83.17909258456457</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="C42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="D42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="E42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="F42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="G42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="H42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="I42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="J42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="K42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="L42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="M42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="N42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="O42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="P42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="R42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="S42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="T42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="U42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="V42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="W42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="X42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="C43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="D43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="E43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="F43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="G43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="H43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="I43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="J43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="K43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="L43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="M43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="N43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="O43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="P43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="R43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="S43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="T43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="U43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="V43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="W43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="X43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.345946774308196</v>
+        <v>2.345946774308168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>45.8423811144977</v>
+        <v>45.84238111449733</v>
       </c>
       <c r="C44" t="n">
-        <v>66.64891548531375</v>
+        <v>66.64891548531355</v>
       </c>
       <c r="D44" t="n">
-        <v>93.63948851814774</v>
+        <v>93.63948851814754</v>
       </c>
       <c r="E44" t="n">
-        <v>84.79682938751398</v>
+        <v>84.79682938751395</v>
       </c>
       <c r="F44" t="n">
-        <v>57.25823839390721</v>
+        <v>57.25823839390719</v>
       </c>
       <c r="G44" t="n">
-        <v>29.71964740030043</v>
+        <v>29.71964740030042</v>
       </c>
       <c r="H44" t="n">
         <v>2.181056406693656</v>
       </c>
       <c r="I44" t="n">
+        <v>11.09473618659367</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.09473618659367</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.09473618659367</v>
+      </c>
+      <c r="L44" t="n">
         <v>2.181056406693656</v>
       </c>
-      <c r="J44" t="n">
-        <v>29.17162943952765</v>
-      </c>
-      <c r="K44" t="n">
-        <v>29.17162943952765</v>
-      </c>
-      <c r="L44" t="n">
-        <v>20.25794965962762</v>
-      </c>
       <c r="M44" t="n">
-        <v>20.25794965962762</v>
+        <v>4.445064260810526</v>
       </c>
       <c r="N44" t="n">
-        <v>20.25794965962762</v>
+        <v>4.445064260810526</v>
       </c>
       <c r="O44" t="n">
-        <v>20.25794965962762</v>
+        <v>6.892112675556021</v>
       </c>
       <c r="P44" t="n">
-        <v>16.02319191764191</v>
+        <v>2.657354933570321</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.02319191764191</v>
+        <v>2.657354933570321</v>
       </c>
       <c r="R44" t="n">
-        <v>21.3916242819539</v>
+        <v>8.025787297882303</v>
       </c>
       <c r="S44" t="n">
-        <v>21.3916242819539</v>
+        <v>35.0163603307163</v>
       </c>
       <c r="T44" t="n">
-        <v>21.3916242819539</v>
+        <v>62.00693336355029</v>
       </c>
       <c r="U44" t="n">
-        <v>48.38219731478789</v>
+        <v>62.00693336355029</v>
       </c>
       <c r="V44" t="n">
-        <v>62.00693336355089</v>
+        <v>62.00693336355029</v>
       </c>
       <c r="W44" t="n">
-        <v>88.21444484378689</v>
+        <v>88.21444484378647</v>
       </c>
       <c r="X44" t="n">
-        <v>88.21444484378689</v>
+        <v>88.21444484378647</v>
       </c>
       <c r="Y44" t="n">
-        <v>60.67585385018054</v>
+        <v>60.67585385018</v>
       </c>
     </row>
     <row r="45">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.860595026224805</v>
+        <v>5.860595026224928</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.04625893180995</v>
       </c>
       <c r="F11" t="n">
-        <v>44.12156383158406</v>
+        <v>44.12156383158418</v>
       </c>
       <c r="G11" t="n">
-        <v>73.99775520728666</v>
+        <v>73.99775520728679</v>
       </c>
       <c r="H11" t="n">
-        <v>20.4849210333793</v>
+        <v>18.43866210156972</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.7005728371032</v>
+        <v>22.70057283710332</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.739782217483709</v>
+        <v>4.739782217485507</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>43.00075102284296</v>
+        <v>43.87815018156677</v>
       </c>
       <c r="G14" t="n">
-        <v>72.87694239854557</v>
+        <v>72.87694239854737</v>
       </c>
       <c r="H14" t="n">
-        <v>18.19524845154875</v>
+        <v>17.3178492928303</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.5797600283621</v>
+        <v>21.5797600283639</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.93106470209553</v>
+        <v>35.93106470209489</v>
       </c>
       <c r="G20" t="n">
-        <v>65.80725607779814</v>
+        <v>65.80725607779749</v>
       </c>
       <c r="H20" t="n">
-        <v>10.24816297208107</v>
+        <v>10.24816297208042</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.51007370761467</v>
+        <v>14.51007370761403</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448092</v>
+        <v>21.42099099448075</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29718237018352</v>
+        <v>51.29718237018335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448069</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29718237018346</v>
+        <v>51.29718237018329</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.241359001687719</v>
+        <v>6.241359001686284</v>
       </c>
       <c r="G32" t="n">
-        <v>36.11755037739032</v>
+        <v>36.11755037738889</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>17.68957134671308</v>
+        <v>17.68957134671177</v>
       </c>
       <c r="G35" t="n">
-        <v>47.56576272241566</v>
+        <v>47.56576272241433</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>19.08734020125671</v>
+        <v>19.08734020125382</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96353157695931</v>
+        <v>48.96353157695643</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.42655539545551</v>
+        <v>23.42655539545592</v>
       </c>
       <c r="G41" t="n">
-        <v>53.30274677115811</v>
+        <v>53.30274677115852</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.005564400974649</v>
+        <v>2.005564400975057</v>
       </c>
     </row>
     <row r="42">
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>25.68290173001457</v>
+        <v>25.68290173001441</v>
       </c>
       <c r="G44" t="n">
-        <v>55.55909310571717</v>
+        <v>55.55909310571701</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.261910735533711</v>
+        <v>4.261910735533547</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>887700.2034258901</v>
+        <v>887700.2034258894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890128.5076117547</v>
+        <v>890128.5076117549</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896156.1287202426</v>
+        <v>896156.1287202429</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894515.8288554475</v>
+        <v>894515.8288554476</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894315.5565339684</v>
+        <v>894315.5565339688</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893550.1551472576</v>
+        <v>893550.1551472575</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847442.5528867169</v>
+        <v>847442.552886717</v>
       </c>
       <c r="C2" t="n">
         <v>847442.5528867169</v>
       </c>
       <c r="D2" t="n">
-        <v>847442.552886717</v>
+        <v>847442.5528867169</v>
       </c>
       <c r="E2" t="n">
-        <v>837925.2694323414</v>
+        <v>837925.2694323409</v>
       </c>
       <c r="F2" t="n">
-        <v>838383.5254577858</v>
+        <v>838383.525457785</v>
       </c>
       <c r="G2" t="n">
-        <v>840046.3586090393</v>
+        <v>840046.3586090395</v>
       </c>
       <c r="H2" t="n">
-        <v>840676.9238555469</v>
+        <v>840676.9238555467</v>
       </c>
       <c r="I2" t="n">
+        <v>844315.5693234092</v>
+      </c>
+      <c r="J2" t="n">
         <v>844315.5693234093</v>
       </c>
-      <c r="J2" t="n">
-        <v>844315.5693234095</v>
-      </c>
       <c r="K2" t="n">
-        <v>844315.5693234096</v>
+        <v>844315.5693234093</v>
       </c>
       <c r="L2" t="n">
-        <v>846369.6771246741</v>
+        <v>846369.6771246743</v>
       </c>
       <c r="M2" t="n">
-        <v>844820.5050301453</v>
+        <v>844820.5050301451</v>
       </c>
       <c r="N2" t="n">
-        <v>844631.3589487481</v>
+        <v>844631.3589487486</v>
       </c>
       <c r="O2" t="n">
-        <v>843908.4798612993</v>
+        <v>843908.479861299</v>
       </c>
       <c r="P2" t="n">
-        <v>843450.4866823105</v>
+        <v>843450.4866823106</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>315260.973790927</v>
+        <v>315260.9737909267</v>
       </c>
       <c r="F3" t="n">
-        <v>421.3807308723497</v>
+        <v>421.3807308717822</v>
       </c>
       <c r="G3" t="n">
-        <v>1671.813768947197</v>
+        <v>1671.813768947794</v>
       </c>
       <c r="H3" t="n">
-        <v>771.1309214120475</v>
+        <v>771.1309214123123</v>
       </c>
       <c r="I3" t="n">
-        <v>4686.863115666842</v>
+        <v>4686.863115666518</v>
       </c>
       <c r="J3" t="n">
         <v>272903.6804819609</v>
       </c>
       <c r="K3" t="n">
-        <v>156.1733915018522</v>
+        <v>156.1733915017264</v>
       </c>
       <c r="L3" t="n">
-        <v>4887.626557981791</v>
+        <v>4887.626557982356</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>863.0217422189617</v>
+        <v>863.0217422187798</v>
       </c>
       <c r="O3" t="n">
         <v>272657.1823158051</v>
@@ -26427,37 +26427,37 @@
         <v>545808.6969792227</v>
       </c>
       <c r="F4" t="n">
-        <v>546121.6498060017</v>
+        <v>546121.6498060012</v>
       </c>
       <c r="G4" t="n">
-        <v>547257.8209241132</v>
+        <v>547257.8209241133</v>
       </c>
       <c r="H4" t="n">
-        <v>547688.7266301054</v>
+        <v>547688.7266301056</v>
       </c>
       <c r="I4" t="n">
         <v>550175.2466260451</v>
       </c>
       <c r="J4" t="n">
-        <v>550175.2466260451</v>
+        <v>550175.2466260452</v>
       </c>
       <c r="K4" t="n">
-        <v>550175.2466260451</v>
+        <v>550175.2466260453</v>
       </c>
       <c r="L4" t="n">
-        <v>551578.9503302866</v>
+        <v>551578.9503302868</v>
       </c>
       <c r="M4" t="n">
-        <v>550517.0304366495</v>
+        <v>550517.0304366497</v>
       </c>
       <c r="N4" t="n">
-        <v>550391.0459461084</v>
+        <v>550391.0459461086</v>
       </c>
       <c r="O4" t="n">
         <v>549897.056267404</v>
       </c>
       <c r="P4" t="n">
-        <v>549584.0801317464</v>
+        <v>549584.0801317465</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30416.90799055837</v>
+        <v>30416.90799055836</v>
       </c>
       <c r="F5" t="n">
-        <v>30489.5959076384</v>
+        <v>30489.59590763829</v>
       </c>
       <c r="G5" t="n">
         <v>30794.26516781158</v>
       </c>
       <c r="H5" t="n">
-        <v>30942.17745131857</v>
+        <v>30942.17745131861</v>
       </c>
       <c r="I5" t="n">
         <v>31860.47898742951</v>
       </c>
       <c r="J5" t="n">
-        <v>31860.47898742951</v>
+        <v>31860.47898742952</v>
       </c>
       <c r="K5" t="n">
-        <v>31860.47898742951</v>
+        <v>31860.47898742952</v>
       </c>
       <c r="L5" t="n">
-        <v>32803.77380075422</v>
+        <v>32803.77380075431</v>
       </c>
       <c r="M5" t="n">
-        <v>32101.46837614811</v>
+        <v>32101.46837614819</v>
       </c>
       <c r="N5" t="n">
-        <v>32005.49704125351</v>
+        <v>32005.49704125369</v>
       </c>
       <c r="O5" t="n">
-        <v>31734.50305016088</v>
+        <v>31734.50305016085</v>
       </c>
       <c r="P5" t="n">
-        <v>31592.77469471112</v>
+        <v>31592.77469471113</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244765.1792123808</v>
+        <v>244759.9053063616</v>
       </c>
       <c r="C6" t="n">
-        <v>244765.1792123808</v>
+        <v>244759.9053063615</v>
       </c>
       <c r="D6" t="n">
-        <v>244765.1792123809</v>
+        <v>244759.9053063615</v>
       </c>
       <c r="E6" t="n">
-        <v>-53561.30932836667</v>
+        <v>-53594.57524454613</v>
       </c>
       <c r="F6" t="n">
-        <v>261350.8990132733</v>
+        <v>261318.980908934</v>
       </c>
       <c r="G6" t="n">
-        <v>260322.4587481674</v>
+        <v>260295.4313295661</v>
       </c>
       <c r="H6" t="n">
-        <v>261274.8888527109</v>
+        <v>261249.7160377758</v>
       </c>
       <c r="I6" t="n">
-        <v>257592.9805942679</v>
+        <v>257578.5096777685</v>
       </c>
       <c r="J6" t="n">
-        <v>-10623.83677202601</v>
+        <v>-10638.30768852594</v>
       </c>
       <c r="K6" t="n">
-        <v>262123.6703184331</v>
+        <v>262109.1994019332</v>
       </c>
       <c r="L6" t="n">
-        <v>257099.3264356514</v>
+        <v>257090.8970126844</v>
       </c>
       <c r="M6" t="n">
-        <v>262202.0062173477</v>
+        <v>262189.0204058674</v>
       </c>
       <c r="N6" t="n">
-        <v>261371.7942191672</v>
+        <v>261358.2520956836</v>
       </c>
       <c r="O6" t="n">
-        <v>-10380.26177207072</v>
+        <v>-10395.93001051787</v>
       </c>
       <c r="P6" t="n">
-        <v>262273.631855853</v>
+        <v>262256.6165786443</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>341.1296006024511</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="G2" t="n">
         <v>342.033507072808</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="J2" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="L2" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="M2" t="n">
         <v>344.460007689545</v>
       </c>
       <c r="N2" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="O2" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="P2" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="F3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="G3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="H3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="I3" t="n">
         <v>48.56760445067687</v>
       </c>
       <c r="J3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="K3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="L3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="M3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="N3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="O3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="P3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="F4" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="G4" t="n">
         <v>16.13612639281115</v>
       </c>
       <c r="H4" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="I4" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="J4" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="K4" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="L4" t="n">
-        <v>45.46046107166365</v>
+        <v>45.46046107166486</v>
       </c>
       <c r="M4" t="n">
-        <v>34.28102323472041</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="N4" t="n">
-        <v>33.35542716535657</v>
+        <v>33.35542716535934</v>
       </c>
       <c r="O4" t="n">
-        <v>29.32433467885245</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="P4" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
     </row>
   </sheetData>
@@ -26917,31 +26917,31 @@
         <v>341.1296006024511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1952167393772584</v>
+        <v>0.1952167393770878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7086897309796427</v>
+        <v>0.7086897309798701</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2687745080821173</v>
+        <v>0.2687745080822879</v>
       </c>
       <c r="I2" t="n">
-        <v>1.550949962953496</v>
+        <v>1.550949962953212</v>
       </c>
       <c r="J2" t="n">
-        <v>341.1296006024511</v>
+        <v>341.1296006024512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1952167393773152</v>
+        <v>0.195216739377158</v>
       </c>
       <c r="L2" t="n">
-        <v>1.58424038476312</v>
+        <v>1.584240384763461</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.078777177773702</v>
+        <v>1.078777177773475</v>
       </c>
       <c r="O2" t="n">
         <v>340.8214778947564</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.56760445067702</v>
+        <v>48.56760445067675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9255960693638379</v>
+        <v>0.9255960693623333</v>
       </c>
       <c r="G4" t="n">
-        <v>4.031092486504123</v>
+        <v>4.031092486505637</v>
       </c>
       <c r="H4" t="n">
-        <v>2.061129595181605</v>
+        <v>2.061129595182081</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95912374466118</v>
+        <v>12.95912374466081</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.30408133900966</v>
+        <v>14.30408133901081</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>341.1296006024511</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1952167393772584</v>
+        <v>0.1952167393770878</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7086897309796427</v>
+        <v>0.7086897309798701</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2687745080821173</v>
+        <v>0.2687745080822879</v>
       </c>
       <c r="N2" t="n">
-        <v>1.550949962953496</v>
+        <v>1.550949962953212</v>
       </c>
       <c r="O2" t="n">
-        <v>341.1296006024511</v>
+        <v>341.1296006024512</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1952167393773152</v>
+        <v>0.195216739377158</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9255960693638379</v>
+        <v>0.9255960693623333</v>
       </c>
       <c r="O4" t="n">
-        <v>4.031092486504123</v>
+        <v>4.031092486505637</v>
       </c>
       <c r="P4" t="n">
-        <v>2.061129595181605</v>
+        <v>2.061129595182081</v>
       </c>
     </row>
   </sheetData>
@@ -28090,10 +28090,10 @@
         <v>341.1296006024511</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6472319095737</v>
+        <v>333.6472319095736</v>
       </c>
       <c r="D11" t="n">
-        <v>317.8202011097407</v>
+        <v>317.8202011097406</v>
       </c>
       <c r="E11" t="n">
         <v>341.1296006024511</v>
@@ -28111,10 +28111,10 @@
         <v>341.1296006024511</v>
       </c>
       <c r="J11" t="n">
-        <v>288.8077172425747</v>
+        <v>288.8077172425748</v>
       </c>
       <c r="K11" t="n">
-        <v>332.8099017585746</v>
+        <v>341.1296006024511</v>
       </c>
       <c r="L11" t="n">
         <v>341.1296006024511</v>
@@ -28126,7 +28126,7 @@
         <v>341.1296006024511</v>
       </c>
       <c r="O11" t="n">
-        <v>341.0127293817927</v>
+        <v>341.1296006024511</v>
       </c>
       <c r="P11" t="n">
         <v>341.1296006024511</v>
@@ -28135,22 +28135,22 @@
         <v>341.1296006024511</v>
       </c>
       <c r="R11" t="n">
-        <v>341.1296006024511</v>
+        <v>338.0618365034428</v>
       </c>
       <c r="S11" t="n">
-        <v>294.6282709298569</v>
+        <v>291.6956671632303</v>
       </c>
       <c r="T11" t="n">
-        <v>236.6889043788429</v>
+        <v>225.5094665418997</v>
       </c>
       <c r="U11" t="n">
-        <v>250.4634686569526</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V11" t="n">
-        <v>308.2281821605244</v>
+        <v>319.4076199974676</v>
       </c>
       <c r="W11" t="n">
-        <v>328.1916994758162</v>
+        <v>328.1916994758161</v>
       </c>
       <c r="X11" t="n">
         <v>341.1296006024511</v>
@@ -28187,34 +28187,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I12" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J12" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K12" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L12" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M12" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N12" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O12" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P12" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R12" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S12" t="n">
         <v>237.7816878053846</v>
@@ -28272,16 +28272,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L13" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M13" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O13" t="n">
         <v>212.6127091809802</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="C14" t="n">
-        <v>334.5728279789375</v>
+        <v>334.5728279789359</v>
       </c>
       <c r="D14" t="n">
-        <v>318.7457971791045</v>
+        <v>318.7457971791029</v>
       </c>
       <c r="E14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="F14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="G14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="H14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="I14" t="n">
-        <v>341.3248173418284</v>
+        <v>339.7325516875164</v>
       </c>
       <c r="J14" t="n">
-        <v>289.7333133119386</v>
+        <v>277.6282794056316</v>
       </c>
       <c r="K14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="L14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="M14" t="n">
-        <v>340.0290254767305</v>
+        <v>340.0290254767307</v>
       </c>
       <c r="N14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="O14" t="n">
-        <v>341.0127293817927</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="P14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.1623042565411</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R14" t="n">
-        <v>338.0618365034427</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="S14" t="n">
-        <v>293.7845970258999</v>
+        <v>295.5538669992192</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5094665418997</v>
+        <v>233.8624273307773</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0272664580539</v>
+        <v>260.1323003643594</v>
       </c>
       <c r="V14" t="n">
-        <v>320.3332160668315</v>
+        <v>320.3332160668299</v>
       </c>
       <c r="W14" t="n">
-        <v>329.11729554518</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.3248173418284</v>
+        <v>341.3248173418282</v>
       </c>
     </row>
     <row r="15">
@@ -28424,34 +28424,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I15" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J15" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K15" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L15" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M15" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N15" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O15" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P15" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R15" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S15" t="n">
         <v>237.7816878053846</v>
@@ -28509,16 +28509,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L16" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M16" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O16" t="n">
         <v>212.6127091809802</v>
@@ -28567,7 +28567,7 @@
         <v>338.6039204654416</v>
       </c>
       <c r="D17" t="n">
-        <v>321.2654387316043</v>
+        <v>322.7768896656086</v>
       </c>
       <c r="E17" t="n">
         <v>342.033507072808</v>
@@ -28582,10 +28582,10 @@
         <v>342.033507072808</v>
       </c>
       <c r="I17" t="n">
-        <v>334.238185612539</v>
+        <v>335.4987465737739</v>
       </c>
       <c r="J17" t="n">
-        <v>277.6282794056315</v>
+        <v>277.6282794056316</v>
       </c>
       <c r="K17" t="n">
         <v>342.033507072808</v>
@@ -28594,7 +28594,7 @@
         <v>342.033507072808</v>
       </c>
       <c r="M17" t="n">
-        <v>340.0290254767305</v>
+        <v>342.033507072808</v>
       </c>
       <c r="N17" t="n">
         <v>342.033507072808</v>
@@ -28606,28 +28606,28 @@
         <v>342.033507072808</v>
       </c>
       <c r="Q17" t="n">
-        <v>342.033507072808</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R17" t="n">
         <v>342.033507072808</v>
       </c>
       <c r="S17" t="n">
-        <v>283.4488330929137</v>
+        <v>289.6199630104574</v>
       </c>
       <c r="T17" t="n">
         <v>241.6455929347109</v>
       </c>
       <c r="U17" t="n">
-        <v>264.163392850865</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V17" t="n">
         <v>324.3643085533355</v>
       </c>
       <c r="W17" t="n">
-        <v>326.6535499433119</v>
+        <v>333.1483880316841</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>342.033507072808</v>
       </c>
       <c r="Y17" t="n">
         <v>342.033507072808</v>
@@ -28661,34 +28661,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I18" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J18" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K18" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L18" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M18" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N18" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P18" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R18" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S18" t="n">
         <v>237.7816878053846</v>
@@ -28746,16 +28746,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L19" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M19" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O19" t="n">
         <v>212.6127091809802</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="C20" t="n">
-        <v>340.6650500606233</v>
+        <v>340.6650500606237</v>
       </c>
       <c r="D20" t="n">
-        <v>324.8380192607902</v>
+        <v>316.9843819039535</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="I20" t="n">
         <v>334.238185612539</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0722381233246</v>
+        <v>278.345834139488</v>
       </c>
       <c r="K20" t="n">
-        <v>332.8099017585746</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="M20" t="n">
-        <v>342.3022815808901</v>
+        <v>340.0290254767307</v>
       </c>
       <c r="N20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="O20" t="n">
-        <v>341.0127293817927</v>
+        <v>342.1520787599476</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.1623042565411</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R20" t="n">
-        <v>342.3022815808901</v>
+        <v>338.0618365034428</v>
       </c>
       <c r="S20" t="n">
-        <v>301.6460890809065</v>
+        <v>301.6460890809069</v>
       </c>
       <c r="T20" t="n">
         <v>225.5094665418997</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0272664580539</v>
+        <v>266.2245224460471</v>
       </c>
       <c r="V20" t="n">
-        <v>326.4254381485172</v>
+        <v>326.4254381485176</v>
       </c>
       <c r="W20" t="n">
-        <v>335.2095176268658</v>
+        <v>333.6406327407549</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>342.3022815808903</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3022815808901</v>
+        <v>342.3022815808903</v>
       </c>
     </row>
     <row r="21">
@@ -28898,34 +28898,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I21" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J21" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K21" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L21" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M21" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N21" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O21" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P21" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R21" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S21" t="n">
         <v>237.7816878053846</v>
@@ -28983,7 +28983,7 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L22" t="n">
         <v>206.1667038228094</v>
@@ -28992,7 +28992,7 @@
         <v>212.0256906600546</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O22" t="n">
         <v>212.6127091809802</v>
@@ -29035,55 +29035,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="D23" t="n">
-        <v>307.8589663516826</v>
+        <v>337.7971430054515</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="I23" t="n">
         <v>334.238185612539</v>
       </c>
       <c r="J23" t="n">
-        <v>308.7846591382855</v>
+        <v>308.7846591382856</v>
       </c>
       <c r="K23" t="n">
-        <v>332.8099017585747</v>
+        <v>343.0820457669112</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="M23" t="n">
-        <v>343.8532315438436</v>
+        <v>340.0290254767306</v>
       </c>
       <c r="N23" t="n">
-        <v>343.8532315438436</v>
+        <v>337.9578802795541</v>
       </c>
       <c r="O23" t="n">
-        <v>341.0127293817927</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="Q23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="R23" t="n">
-        <v>343.8532315438436</v>
+        <v>338.0618365034427</v>
       </c>
       <c r="S23" t="n">
         <v>283.4488330929137</v>
@@ -29092,19 +29092,19 @@
         <v>225.5094665418997</v>
       </c>
       <c r="U23" t="n">
-        <v>279.1836461907079</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V23" t="n">
-        <v>333.3834604299938</v>
+        <v>339.3845618931784</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8532315438436</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438435</v>
       </c>
     </row>
     <row r="24">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7971430054514</v>
+        <v>337.7971430054515</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8532315438435</v>
+        <v>334.238185612539</v>
       </c>
       <c r="J26" t="n">
-        <v>277.6282794056315</v>
+        <v>277.6282794056316</v>
       </c>
       <c r="K26" t="n">
-        <v>332.8099017585746</v>
+        <v>341.4373957852564</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="M26" t="n">
-        <v>340.0290254767305</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="O26" t="n">
-        <v>341.0127293817927</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8532315438435</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R26" t="n">
-        <v>338.0618365034427</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="S26" t="n">
         <v>283.4488330929137</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5094665418997</v>
+        <v>256.6658462745538</v>
       </c>
       <c r="U26" t="n">
-        <v>279.1836461907079</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V26" t="n">
-        <v>334.6022186850894</v>
+        <v>339.3845618931784</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8532315438435</v>
+        <v>331.2932642581139</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8532315438435</v>
+        <v>343.8532315438437</v>
       </c>
     </row>
     <row r="27">
@@ -29372,34 +29372,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I27" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J27" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K27" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M27" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N27" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O27" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P27" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R27" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S27" t="n">
         <v>237.7816878053846</v>
@@ -29457,16 +29457,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L28" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M28" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O28" t="n">
         <v>212.6127091809802</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="C29" t="n">
-        <v>322.4677940726305</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7971430054514</v>
+        <v>337.7971430054515</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="I29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="J29" t="n">
-        <v>308.7846591382855</v>
+        <v>308.7846591382856</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="N29" t="n">
-        <v>337.957880279554</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8532315438436</v>
+        <v>341.0127293817928</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="Q29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="R29" t="n">
-        <v>338.0618365034427</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="S29" t="n">
-        <v>314.6052128255677</v>
+        <v>283.4488330929137</v>
       </c>
       <c r="T29" t="n">
         <v>225.5094665418997</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0272664580539</v>
+        <v>249.4269622621512</v>
       </c>
       <c r="V29" t="n">
         <v>339.3845618931784</v>
       </c>
       <c r="W29" t="n">
-        <v>317.4872593241696</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8532315438436</v>
+        <v>343.8532315438437</v>
       </c>
     </row>
     <row r="30">
@@ -29609,34 +29609,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I30" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J30" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K30" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M30" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N30" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O30" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P30" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R30" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S30" t="n">
         <v>237.7816878053846</v>
@@ -29694,13 +29694,13 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L31" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M31" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N31" t="n">
         <v>194.0867394983278</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="C32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="D32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="E32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="F32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="G32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="H32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="I32" t="n">
         <v>334.238185612539</v>
       </c>
       <c r="J32" t="n">
-        <v>277.6282794056315</v>
+        <v>323.0887404772964</v>
       </c>
       <c r="K32" t="n">
-        <v>332.8099017585746</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="M32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="N32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="O32" t="n">
-        <v>341.0127293817927</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="P32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.1623042565411</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R32" t="n">
-        <v>344.7287821976271</v>
+        <v>338.0618365034428</v>
       </c>
       <c r="S32" t="n">
         <v>283.4488330929137</v>
       </c>
       <c r="T32" t="n">
-        <v>261.8737687476388</v>
+        <v>229.4621224761295</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272664580539</v>
+        <v>293.4877275297187</v>
       </c>
       <c r="V32" t="n">
-        <v>344.7287821976271</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>344.7287821976271</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>344.7287821976271</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.7287821976271</v>
+        <v>344.7287821976273</v>
       </c>
     </row>
     <row r="33">
@@ -29846,34 +29846,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I33" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J33" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K33" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M33" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N33" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O33" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P33" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R33" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S33" t="n">
         <v>237.7816878053846</v>
@@ -29931,16 +29931,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L34" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M34" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O34" t="n">
         <v>212.6127091809802</v>
@@ -29986,10 +29986,10 @@
         <v>344.460007689545</v>
       </c>
       <c r="C35" t="n">
-        <v>322.4677940726305</v>
+        <v>344.460007689545</v>
       </c>
       <c r="D35" t="n">
-        <v>340.9217865075178</v>
+        <v>340.9217865075191</v>
       </c>
       <c r="E35" t="n">
         <v>344.460007689545</v>
@@ -30004,52 +30004,52 @@
         <v>344.460007689545</v>
       </c>
       <c r="I35" t="n">
-        <v>344.460007689545</v>
+        <v>334.238185612539</v>
       </c>
       <c r="J35" t="n">
-        <v>281.0783554646275</v>
+        <v>311.9093026403532</v>
       </c>
       <c r="K35" t="n">
-        <v>332.8099017585746</v>
+        <v>332.8099017585747</v>
       </c>
       <c r="L35" t="n">
         <v>344.460007689545</v>
       </c>
       <c r="M35" t="n">
-        <v>340.0290254767305</v>
+        <v>340.0290254767307</v>
       </c>
       <c r="N35" t="n">
-        <v>344.460007689545</v>
+        <v>337.9578802795542</v>
       </c>
       <c r="O35" t="n">
-        <v>341.0127293817927</v>
+        <v>341.0127293817928</v>
       </c>
       <c r="P35" t="n">
         <v>344.460007689545</v>
       </c>
       <c r="Q35" t="n">
-        <v>344.460007689545</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R35" t="n">
         <v>344.460007689545</v>
       </c>
       <c r="S35" t="n">
-        <v>317.7298563276341</v>
+        <v>317.7298563276353</v>
       </c>
       <c r="T35" t="n">
-        <v>259.7904897766201</v>
+        <v>225.5094665418997</v>
       </c>
       <c r="U35" t="n">
         <v>248.0272664580539</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>335.1640752446932</v>
       </c>
       <c r="W35" t="n">
+        <v>317.0122616388729</v>
+      </c>
+      <c r="X35" t="n">
         <v>344.460007689545</v>
-      </c>
-      <c r="X35" t="n">
-        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
         <v>344.460007689545</v>
@@ -30083,34 +30083,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I36" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J36" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K36" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L36" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M36" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N36" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O36" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P36" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R36" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S36" t="n">
         <v>237.7816878053846</v>
@@ -30168,16 +30168,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L37" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M37" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O37" t="n">
         <v>212.6127091809802</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="D38" t="n">
-        <v>339.996190438154</v>
+        <v>332.8974653459476</v>
       </c>
       <c r="E38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="F38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="G38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="H38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="I38" t="n">
-        <v>334.238185612539</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="J38" t="n">
-        <v>277.6282794056315</v>
+        <v>277.6282794056316</v>
       </c>
       <c r="K38" t="n">
-        <v>332.8099017585746</v>
+        <v>332.8099017585747</v>
       </c>
       <c r="L38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="M38" t="n">
-        <v>343.9878349043652</v>
+        <v>342.533507653656</v>
       </c>
       <c r="N38" t="n">
-        <v>343.9878349043652</v>
+        <v>337.9578802795542</v>
       </c>
       <c r="O38" t="n">
-        <v>343.9878349043652</v>
+        <v>341.0127293817928</v>
       </c>
       <c r="P38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="Q38" t="n">
-        <v>343.9878349043652</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R38" t="n">
-        <v>338.0618365034427</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="S38" t="n">
-        <v>316.8042602582702</v>
+        <v>283.4488330929137</v>
       </c>
       <c r="T38" t="n">
-        <v>258.8648937072563</v>
+        <v>258.8648937072591</v>
       </c>
       <c r="U38" t="n">
-        <v>281.3826936234104</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V38" t="n">
-        <v>317.6603736470228</v>
+        <v>341.5836093258837</v>
       </c>
       <c r="W38" t="n">
-        <v>317.0122616388729</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="X38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.9878349043652</v>
+        <v>343.9878349043653</v>
       </c>
     </row>
     <row r="39">
@@ -30320,34 +30320,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I39" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J39" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K39" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L39" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M39" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N39" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O39" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P39" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R39" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S39" t="n">
         <v>237.7816878053846</v>
@@ -30405,7 +30405,7 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L40" t="n">
         <v>206.1667038228094</v>
@@ -30414,7 +30414,7 @@
         <v>212.0256906600546</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O40" t="n">
         <v>212.6127091809802</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="C41" t="n">
-        <v>343.6797121966705</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>310.2100424021589</v>
+        <v>335.9650979516495</v>
       </c>
       <c r="E41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="F41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="G41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="H41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="I41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="J41" t="n">
-        <v>306.9526140844839</v>
+        <v>306.9526140844837</v>
       </c>
       <c r="K41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="L41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="M41" t="n">
-        <v>340.0290254767305</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="N41" t="n">
-        <v>343.6797121966705</v>
+        <v>337.9578802795542</v>
       </c>
       <c r="O41" t="n">
-        <v>341.0127293817927</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="P41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="Q41" t="n">
-        <v>343.6797121966705</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R41" t="n">
-        <v>343.6797121966705</v>
+        <v>338.0618365034428</v>
       </c>
       <c r="S41" t="n">
-        <v>289.7485940434649</v>
+        <v>312.7731677717658</v>
       </c>
       <c r="T41" t="n">
-        <v>254.8338012207522</v>
+        <v>225.5094665418997</v>
       </c>
       <c r="U41" t="n">
-        <v>248.0272664580539</v>
+        <v>255.666451877756</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>337.5525168393765</v>
       </c>
       <c r="W41" t="n">
-        <v>343.6797121966705</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.6797121966705</v>
+        <v>343.6797121966704</v>
       </c>
     </row>
     <row r="42">
@@ -30557,34 +30557,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I42" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J42" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K42" t="n">
         <v>207.1233431157808</v>
       </c>
       <c r="L42" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M42" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N42" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O42" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P42" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R42" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S42" t="n">
         <v>237.7816878053846</v>
@@ -30642,16 +30642,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K43" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L43" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M43" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O43" t="n">
         <v>212.6127091809802</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="C44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="D44" t="n">
         <v>333.9039683564681</v>
       </c>
       <c r="E44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="F44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="G44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="H44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="I44" t="n">
-        <v>334.238185612539</v>
+        <v>343.241902561933</v>
       </c>
       <c r="J44" t="n">
-        <v>304.8914844893022</v>
+        <v>277.6282794056316</v>
       </c>
       <c r="K44" t="n">
-        <v>332.8099017585746</v>
+        <v>332.8099017585747</v>
       </c>
       <c r="L44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="M44" t="n">
-        <v>340.0290254767305</v>
+        <v>342.3159020970508</v>
       </c>
       <c r="N44" t="n">
-        <v>337.957880279554</v>
+        <v>337.9578802795542</v>
       </c>
       <c r="O44" t="n">
-        <v>341.0127293817927</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="P44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.1623042565411</v>
+        <v>340.1623042565412</v>
       </c>
       <c r="R44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="S44" t="n">
-        <v>283.4488330929137</v>
+        <v>310.7120381765844</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5094665418997</v>
+        <v>252.7726716255704</v>
       </c>
       <c r="U44" t="n">
-        <v>275.2904715417246</v>
+        <v>248.0272664580539</v>
       </c>
       <c r="V44" t="n">
-        <v>321.9905418057396</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.4844954572932</v>
+        <v>343.4844954572933</v>
       </c>
     </row>
     <row r="45">
@@ -30794,34 +30794,34 @@
         <v>155.5497388408675</v>
       </c>
       <c r="I45" t="n">
-        <v>158.127115660964</v>
+        <v>158.1271156609641</v>
       </c>
       <c r="J45" t="n">
-        <v>196.24138137605</v>
+        <v>196.2413813760501</v>
       </c>
       <c r="K45" t="n">
-        <v>207.1233431157807</v>
+        <v>207.1233431157808</v>
       </c>
       <c r="L45" t="n">
-        <v>202.4684213089864</v>
+        <v>202.4684213089866</v>
       </c>
       <c r="M45" t="n">
-        <v>204.4984606976608</v>
+        <v>204.498460697661</v>
       </c>
       <c r="N45" t="n">
-        <v>186.260372924844</v>
+        <v>186.2603729248442</v>
       </c>
       <c r="O45" t="n">
-        <v>206.8637383671668</v>
+        <v>206.8637383671669</v>
       </c>
       <c r="P45" t="n">
-        <v>197.7599557975925</v>
+        <v>197.7599557975926</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.1353681734406</v>
+        <v>214.1353681734407</v>
       </c>
       <c r="R45" t="n">
-        <v>230.2431278225378</v>
+        <v>230.2431278225379</v>
       </c>
       <c r="S45" t="n">
         <v>237.7816878053846</v>
@@ -30867,7 +30867,7 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>170.4381591411677</v>
+        <v>170.4381591411678</v>
       </c>
       <c r="H46" t="n">
         <v>176.2760109188239</v>
@@ -30879,16 +30879,16 @@
         <v>200.1755883666758</v>
       </c>
       <c r="K46" t="n">
-        <v>199.4712332995847</v>
+        <v>199.4712332995848</v>
       </c>
       <c r="L46" t="n">
         <v>206.1667038228094</v>
       </c>
       <c r="M46" t="n">
-        <v>212.0256906600545</v>
+        <v>212.0256906600546</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0867394983277</v>
+        <v>194.0867394983278</v>
       </c>
       <c r="O46" t="n">
         <v>212.6127091809802</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H11" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I11" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J11" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K11" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L11" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M11" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N11" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O11" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P11" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R11" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S11" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H12" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I12" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J12" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K12" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L12" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M12" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N12" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O12" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P12" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R12" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I13" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J13" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K13" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L13" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M13" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N13" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O13" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P13" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R13" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S13" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H14" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I14" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J14" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K14" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L14" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M14" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N14" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O14" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P14" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R14" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S14" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H15" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I15" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J15" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K15" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L15" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M15" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N15" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O15" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P15" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R15" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S15" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I16" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J16" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K16" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L16" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M16" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N16" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O16" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P16" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R16" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S16" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H17" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I17" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J17" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K17" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L17" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M17" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N17" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O17" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P17" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R17" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S17" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H18" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I18" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J18" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K18" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L18" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M18" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N18" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O18" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P18" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R18" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S18" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I19" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J19" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K19" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L19" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M19" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N19" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O19" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P19" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R19" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S19" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H20" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I20" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J20" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K20" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L20" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M20" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N20" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O20" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P20" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R20" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S20" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H21" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I21" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J21" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K21" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L21" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M21" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N21" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O21" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P21" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R21" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S21" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I22" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J22" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K22" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L22" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M22" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N22" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O22" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P22" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R22" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S22" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H26" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I26" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J26" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K26" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L26" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M26" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N26" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O26" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P26" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R26" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S26" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H27" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I27" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J27" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K27" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L27" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M27" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N27" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O27" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P27" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R27" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S27" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I28" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J28" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K28" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L28" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M28" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N28" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O28" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P28" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R28" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S28" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H29" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I29" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J29" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K29" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L29" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M29" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N29" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O29" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P29" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R29" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S29" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H30" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I30" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J30" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K30" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L30" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M30" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N30" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O30" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P30" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R30" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S30" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I31" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J31" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K31" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L31" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M31" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N31" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O31" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P31" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R31" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S31" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H32" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I32" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J32" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K32" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L32" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M32" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N32" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O32" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P32" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R32" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S32" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H33" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I33" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J33" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K33" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L33" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M33" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N33" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O33" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P33" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R33" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S33" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I34" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J34" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K34" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L34" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M34" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N34" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O34" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P34" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R34" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S34" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H35" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I35" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J35" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K35" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L35" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M35" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N35" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O35" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P35" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R35" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S35" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H36" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I36" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J36" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K36" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L36" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M36" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N36" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O36" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P36" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R36" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S36" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I37" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J37" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K37" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L37" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M37" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N37" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O37" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P37" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R37" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S37" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H38" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I38" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J38" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K38" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L38" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M38" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N38" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O38" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P38" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R38" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S38" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H39" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I39" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J39" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K39" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L39" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M39" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N39" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O39" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P39" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R39" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S39" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I40" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J40" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K40" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L40" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M40" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N40" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O40" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P40" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R40" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S40" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H41" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I41" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J41" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K41" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L41" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M41" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N41" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O41" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P41" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R41" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S41" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H42" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I42" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J42" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K42" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L42" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M42" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N42" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O42" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P42" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R42" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S42" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I43" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J43" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K43" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L43" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M43" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N43" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O43" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P43" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R43" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S43" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1952466510579979</v>
+        <v>0.1952466510579969</v>
       </c>
       <c r="H44" t="n">
-        <v>1.999569765147722</v>
+        <v>1.999569765147711</v>
       </c>
       <c r="I44" t="n">
-        <v>7.527246514913473</v>
+        <v>7.527246514913431</v>
       </c>
       <c r="J44" t="n">
-        <v>16.57131545023377</v>
+        <v>16.57131545023368</v>
       </c>
       <c r="K44" t="n">
-        <v>24.83610618951883</v>
+        <v>24.83610618951869</v>
       </c>
       <c r="L44" t="n">
-        <v>30.81138588683504</v>
+        <v>30.81138588683487</v>
       </c>
       <c r="M44" t="n">
-        <v>34.28360351758771</v>
+        <v>34.28360351758752</v>
       </c>
       <c r="N44" t="n">
-        <v>34.83834806490624</v>
+        <v>34.83834806490605</v>
       </c>
       <c r="O44" t="n">
-        <v>32.89686417844828</v>
+        <v>32.89686417844809</v>
       </c>
       <c r="P44" t="n">
-        <v>28.07671248045395</v>
+        <v>28.07671248045379</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.08444178943939</v>
+        <v>21.08444178943927</v>
       </c>
       <c r="R44" t="n">
-        <v>12.26466244452197</v>
+        <v>12.26466244452191</v>
       </c>
       <c r="S44" t="n">
-        <v>4.449183060984132</v>
+        <v>4.449183060984108</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8546922150063864</v>
+        <v>0.8546922150063817</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01561973208463983</v>
+        <v>0.01561973208463975</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1044661680637204</v>
+        <v>0.1044661680637198</v>
       </c>
       <c r="H45" t="n">
-        <v>1.008923254720668</v>
+        <v>1.008923254720663</v>
       </c>
       <c r="I45" t="n">
-        <v>3.596751839035988</v>
+        <v>3.596751839035968</v>
       </c>
       <c r="J45" t="n">
-        <v>9.869761957283339</v>
+        <v>9.869761957283284</v>
       </c>
       <c r="K45" t="n">
-        <v>16.86899521755261</v>
+        <v>16.86899521755251</v>
       </c>
       <c r="L45" t="n">
-        <v>22.68244583330912</v>
+        <v>22.68244583330899</v>
       </c>
       <c r="M45" t="n">
-        <v>26.46934442561897</v>
+        <v>26.46934442561883</v>
       </c>
       <c r="N45" t="n">
-        <v>27.16990921057261</v>
+        <v>27.16990921057246</v>
       </c>
       <c r="O45" t="n">
-        <v>24.85515885505544</v>
+        <v>24.8551588550553</v>
       </c>
       <c r="P45" t="n">
-        <v>19.94845625069412</v>
+        <v>19.94845625069401</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.33501471634438</v>
+        <v>13.33501471634431</v>
       </c>
       <c r="R45" t="n">
-        <v>6.486066118903625</v>
+        <v>6.486066118903588</v>
       </c>
       <c r="S45" t="n">
-        <v>1.94041325328884</v>
+        <v>1.940413253288829</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4210719668884167</v>
+        <v>0.4210719668884144</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00687277421471845</v>
+        <v>0.006872774214718411</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08758092605859791</v>
+        <v>0.08758092605859741</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7786740516846256</v>
+        <v>0.7786740516846212</v>
       </c>
       <c r="I46" t="n">
-        <v>2.633797303653109</v>
+        <v>2.633797303653094</v>
       </c>
       <c r="J46" t="n">
-        <v>6.191971472342871</v>
+        <v>6.191971472342837</v>
       </c>
       <c r="K46" t="n">
-        <v>10.17531122753528</v>
+        <v>10.17531122753523</v>
       </c>
       <c r="L46" t="n">
-        <v>13.02089513420282</v>
+        <v>13.02089513420275</v>
       </c>
       <c r="M46" t="n">
-        <v>13.72870825480367</v>
+        <v>13.72870825480359</v>
       </c>
       <c r="N46" t="n">
-        <v>13.40227025767618</v>
+        <v>13.4022702576761</v>
       </c>
       <c r="O46" t="n">
-        <v>12.37916580326437</v>
+        <v>12.3791658032643</v>
       </c>
       <c r="P46" t="n">
-        <v>10.59251491166896</v>
+        <v>10.59251491166891</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.33370827205223</v>
+        <v>7.333708272052189</v>
       </c>
       <c r="R46" t="n">
-        <v>3.937956911689319</v>
+        <v>3.937956911689297</v>
       </c>
       <c r="S46" t="n">
-        <v>1.526296684130292</v>
+        <v>1.526296684130283</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3742094113412818</v>
+        <v>0.3742094113412798</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004777141421378073</v>
+        <v>0.004777141421378047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="D11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,49 +35404,49 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.891414989912164</v>
+        <v>6.89141498991205</v>
       </c>
       <c r="J11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.319698843876381</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.100575125720695</v>
+        <v>1.100575125720432</v>
       </c>
       <c r="N11" t="n">
-        <v>3.171720322897158</v>
+        <v>3.171720322896874</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.1168712206582541</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9672963459100856</v>
+        <v>0.9672963459099151</v>
       </c>
       <c r="R11" t="n">
-        <v>3.067764099008457</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.17943783694325</v>
+        <v>8.246834070316577</v>
       </c>
       <c r="T11" t="n">
-        <v>11.17943783694325</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.436202198898764</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="W11" t="n">
-        <v>11.17943783694325</v>
+        <v>11.17943783694318</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="D14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.086631729289422</v>
+        <v>5.494366074977393</v>
       </c>
       <c r="J14" t="n">
-        <v>12.10503390630708</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.51491558325381</v>
+        <v>8.51491558325344</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.366937062274403</v>
+        <v>3.366937062273983</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.3120879600353419</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,22 +35668,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.262980838385374</v>
       </c>
       <c r="S14" t="n">
-        <v>10.3357639329862</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.352960788877526</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="V14" t="n">
-        <v>12.10503390630708</v>
+        <v>12.10503390630551</v>
       </c>
       <c r="W14" t="n">
-        <v>12.10503390630708</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35863,7 +35863,7 @@
         <v>16.13612639281115</v>
       </c>
       <c r="D17" t="n">
-        <v>14.62467545880691</v>
+        <v>16.13612639281115</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,52 +35878,52 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.260560961234887</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9.223605314233449</v>
+        <v>9.223605314233311</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.004481596077369</v>
       </c>
       <c r="N17" t="n">
-        <v>4.07562679325406</v>
+        <v>4.075626793253832</v>
       </c>
       <c r="O17" t="n">
-        <v>1.020777691015383</v>
+        <v>1.020777691015212</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.871202816266987</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.97167056936533</v>
+        <v>3.971670569365244</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.17112991754372</v>
       </c>
       <c r="T17" t="n">
         <v>16.13612639281115</v>
       </c>
       <c r="U17" t="n">
-        <v>16.13612639281115</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>16.13612639281115</v>
       </c>
       <c r="W17" t="n">
-        <v>9.641288304439001</v>
+        <v>16.13612639281115</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.5648677118473415</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="D20" t="n">
-        <v>18.19725598799281</v>
+        <v>10.34361863115606</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.44395871769315</v>
+        <v>0.7175547338564456</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.492379822315627</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.273256104159657</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>4.34440130133612</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.139349378154812</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,25 +36142,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.24044507744739</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="V20" t="n">
-        <v>18.19725598799281</v>
+        <v>18.19725598799323</v>
       </c>
       <c r="W20" t="n">
-        <v>18.19725598799281</v>
+        <v>16.62837110188195</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.8336422199296294</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.38543747121315</v>
+        <v>21.38543747121309</v>
       </c>
       <c r="D23" t="n">
-        <v>1.218203078885153</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>10.27214400833657</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.824206067113039</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.895351264289502</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.840502162050804</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.690927287302486</v>
+        <v>3.690927287302429</v>
       </c>
       <c r="R23" t="n">
-        <v>5.791395040400849</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,16 +36388,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.15637973265399</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>25.15527826946936</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="W23" t="n">
-        <v>26.84096990497068</v>
+        <v>26.84096990497062</v>
       </c>
       <c r="X23" t="n">
-        <v>2.384592182882898</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.38543747121309</v>
+        <v>21.38543747121321</v>
       </c>
       <c r="D26" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,52 +36589,52 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.615045931304564</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>8.627494026681672</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.824206067112982</v>
       </c>
       <c r="N26" t="n">
-        <v>5.895351264289559</v>
+        <v>5.895351264289445</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.840502162050832</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.690927287302493</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.791395040400857</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="U26" t="n">
-        <v>31.15637973265399</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>26.37403652456504</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="W26" t="n">
-        <v>26.84096990497062</v>
+        <v>14.28100261924095</v>
       </c>
       <c r="X26" t="n">
-        <v>2.384592182882841</v>
+        <v>2.384592182882955</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>21.38543747121327</v>
       </c>
       <c r="D29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.615045931304621</v>
+        <v>9.615045931304678</v>
       </c>
       <c r="J29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="K29" t="n">
         <v>11.04332978526901</v>
@@ -36838,40 +36838,40 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.824206067113153</v>
+        <v>3.824206067113039</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>5.895351264289502</v>
       </c>
       <c r="O29" t="n">
-        <v>2.84050216205096</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.69092728730255</v>
+        <v>3.690927287302543</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.791395040400914</v>
       </c>
       <c r="S29" t="n">
-        <v>31.15637973265399</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.399695804097287</v>
       </c>
       <c r="V29" t="n">
-        <v>31.15637973265399</v>
+        <v>31.15637973265405</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4749976852966711</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.384592182882898</v>
+        <v>2.384592182883011</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.26098812499663</v>
+        <v>22.26098812499686</v>
       </c>
       <c r="D32" t="n">
-        <v>38.08801892482967</v>
+        <v>38.0880189248299</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>45.46046107166486</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>11.91888043905257</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>6.770901918073093</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.71605281583448</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,25 +37090,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.666945694184392</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>36.36430220573907</v>
+        <v>3.952655934229754</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>45.46046107166486</v>
       </c>
       <c r="V32" t="n">
-        <v>36.50060003710269</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>27.71652055875415</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.260142836666375</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>21.99221361691457</v>
       </c>
       <c r="D35" t="n">
-        <v>34.28102323472041</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.22182207700597</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.450076058996011</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.502127409990962</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37324,28 +37324,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.29770343300391</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.398171186102246</v>
+        <v>6.398171186102234</v>
       </c>
       <c r="S35" t="n">
-        <v>34.28102323472041</v>
+        <v>34.28102323472168</v>
       </c>
       <c r="T35" t="n">
-        <v>34.28102323472041</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>26.93589308416879</v>
       </c>
       <c r="W35" t="n">
-        <v>27.44774605067204</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>2.991368328584315</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>21.52004083173483</v>
       </c>
       <c r="D38" t="n">
-        <v>33.35542716535657</v>
+        <v>26.25670207315022</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.749649291826245</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -37549,40 +37549,40 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>3.958809427634719</v>
+        <v>2.504482176925308</v>
       </c>
       <c r="N38" t="n">
-        <v>6.029954624811182</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.975105522572505</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.825530647824117</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.925998400922481</v>
       </c>
       <c r="S38" t="n">
-        <v>33.35542716535657</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>33.35542716535657</v>
+        <v>33.35542716535934</v>
       </c>
       <c r="U38" t="n">
-        <v>33.35542716535657</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9.432191486498425</v>
+        <v>33.35542716535934</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>26.97557326549236</v>
       </c>
       <c r="X38" t="n">
-        <v>2.519195543404464</v>
+        <v>2.519195543404578</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.21191812404004</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.569279129361519</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,52 +37774,52 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.441526584131509</v>
+        <v>9.441526584131395</v>
       </c>
       <c r="J41" t="n">
-        <v>29.32433467885245</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="K41" t="n">
-        <v>10.8698104380959</v>
+        <v>10.86981043809573</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.650686719939756</v>
       </c>
       <c r="N41" t="n">
-        <v>5.721831917116489</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.666982814877606</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.517407940129431</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.617875693227802</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.29976095055128</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="T41" t="n">
-        <v>29.32433467885245</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.639185419702097</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>29.3243346788521</v>
       </c>
       <c r="W41" t="n">
-        <v>26.66745055779757</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.211072835709786</v>
+        <v>2.211072835709729</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.01670138466272</v>
+        <v>21.01670138466289</v>
       </c>
       <c r="D44" t="n">
-        <v>27.26320508367071</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003716949394004</v>
       </c>
       <c r="J44" t="n">
-        <v>27.26320508367071</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.28687662032007</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.471766075500511</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,22 +38038,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.422658953850487</v>
+        <v>5.42265895385056</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>27.2632050836707</v>
       </c>
       <c r="U44" t="n">
-        <v>27.26320508367071</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>13.76235964521516</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>26.47223381842025</v>
+        <v>26.47223381842042</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
